--- a/Доверительный интервал.xlsx
+++ b/Доверительный интервал.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Uni\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8501E3F-F955-46CB-AAE5-46A2CE5506E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2538CD00-7526-44D4-A667-0B930A5C2678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-996" yWindow="360" windowWidth="20712" windowHeight="11004" activeTab="2" xr2:uid="{8EA15F8B-5F10-4A25-B920-A09C61AB86B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{8EA15F8B-5F10-4A25-B920-A09C61AB86B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
     <sheet name="Задание 2" sheetId="2" r:id="rId2"/>
     <sheet name="Задание 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Задание 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Дано</t>
   </si>
@@ -90,14 +92,57 @@
   </si>
   <si>
     <t>t_11</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>делаем вывод -&gt;</t>
+  </si>
+  <si>
+    <t>Ф(1,77)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>P(...)</t>
+  </si>
+  <si>
+    <t>Случайная бесповторная</t>
+  </si>
+  <si>
+    <t>X_avg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Ф(t)</t>
+  </si>
+  <si>
+    <t>1450-13</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>1450+13</t>
+  </si>
+  <si>
+    <t>alph</t>
+  </si>
+  <si>
+    <t>x_avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -187,21 +232,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -220,13 +311,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -282,6 +421,417 @@
         <a:xfrm>
           <a:off x="594360" y="1493520"/>
           <a:ext cx="2048161" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436369</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5FF425-9E78-41B7-B71F-4E52C3C566B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3817620" y="419100"/>
+          <a:ext cx="885949" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169833</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570FCEDD-1AD8-4206-B523-1E8D9AE14B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369820" y="190500"/>
+          <a:ext cx="2067213" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515017</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63266EDA-E895-4E5F-8B3E-D4BC0E72C38A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="182880"/>
+          <a:ext cx="4782217" cy="4258269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606154</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982584E3-E930-48BD-9B81-350B77172D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="160020"/>
+          <a:ext cx="2610214" cy="1086002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>383295</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{475F4481-9632-4445-B041-4EAA7B1EDCB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="213360"/>
+          <a:ext cx="2791215" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21815</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>148720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48C4431-C0AA-4EB0-98FD-F480E1587429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3070860" y="1409700"/>
+          <a:ext cx="6163535" cy="933580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>573534</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8D30F9-DF9B-4E68-9BE9-3BF747149066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="868680" y="2026920"/>
+          <a:ext cx="924054" cy="161948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522270</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAA58DB-8D5C-4FCE-A2F1-0679ADD8396F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="1402080"/>
+          <a:ext cx="2152950" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>278335</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>5836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4EAD51C-8263-4421-991B-9D871A0E759F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="2263140"/>
+          <a:ext cx="1467055" cy="866896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,78 +1143,78 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="E2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>626</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <f>F2/2</f>
         <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>16.8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>0.98799999999999999</v>
       </c>
     </row>
@@ -672,7 +1222,7 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <f>F5*C6/SQRT(C3)</f>
         <v>0.19984019174435788</v>
       </c>
@@ -697,66 +1247,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF585A6-5FE3-442F-A521-922B0AB22645}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.88</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>C7*C5/SQRT(C3)</f>
         <v>2.5403411844343537</v>
       </c>
@@ -767,19 +1319,306 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C725C389-8D2A-4917-977B-64AA61D0A52B}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C4*SQRT(C2/(C3*(1-C3)))</f>
+        <v>1.7712297710801905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <f>C13*2</f>
+        <v>0.92320000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66903BAE-561F-4670-BD4B-1478C892063C}">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="20">
+        <v>300</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1450</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20">
+        <f>C7/2</f>
+        <v>0.49980000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="23">
+        <f>C11*SQRT((C5/C3)*(1-C3/C2))</f>
+        <v>12.638673981078869</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1450</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0158A-84D4-42B3-AA95-6F70567CEF1F}">
+  <dimension ref="B1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
+        <v>70</v>
+      </c>
+      <c r="E2" s="28">
+        <v>125</v>
+      </c>
+      <c r="F2" s="29">
+        <v>78</v>
+      </c>
+      <c r="G2" s="29">
+        <v>102</v>
+      </c>
+      <c r="H2" s="29">
+        <v>140</v>
+      </c>
+      <c r="I2" s="30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="31">
+        <v>45</v>
+      </c>
+      <c r="F3" s="32">
+        <v>50</v>
+      </c>
+      <c r="G3" s="32">
+        <v>125</v>
+      </c>
+      <c r="H3" s="32">
+        <v>115</v>
+      </c>
+      <c r="I3" s="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <f>SQRT(_xlfn.VAR.S(E2:I3))</f>
+        <v>32.144811228079867</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>